--- a/data/trans_bre/Q45B_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Provincia-trans_bre.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 8,02</t>
+          <t>-0,78; 8,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,37</t>
+          <t>-1,0; 4,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 373,01</t>
+          <t>-20,98; 321,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-50,12; 656,2</t>
+          <t>-50,51; 601,58</t>
         </is>
       </c>
     </row>
@@ -722,27 +722,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,28</t>
+          <t>2,47; 7,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 4,02</t>
+          <t>0,29; 4,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,63</t>
+          <t>0,19; 1,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,91; 828,47</t>
+          <t>90,61; 763,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 530,58</t>
+          <t>2,67; 560,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -802,27 +802,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,04; 11,46</t>
+          <t>4,98; 10,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 9,26</t>
+          <t>3,18; 9,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 9,16</t>
+          <t>3,92; 9,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>272,33; —</t>
+          <t>210,62; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>142,79; —</t>
+          <t>127,87; 2892,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 9,1</t>
+          <t>2,62; 8,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 6,81</t>
+          <t>2,97; 6,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,87</t>
+          <t>0,44; 3,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>56,93; 1004,68</t>
+          <t>67,34; 1179,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>207,41; 2497,54</t>
+          <t>205,77; 2348,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,59; —</t>
+          <t>-29,09; —</t>
         </is>
       </c>
     </row>
@@ -962,27 +962,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 10,43</t>
+          <t>1,08; 9,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 4,28</t>
+          <t>-0,87; 4,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 1,78</t>
+          <t>-2,37; 1,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 1013,28</t>
+          <t>4,71; 877,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,16; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1042,17 +1042,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,17; 16,0</t>
+          <t>8,17; 15,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,95; 8,03</t>
+          <t>1,03; 7,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 1,3</t>
+          <t>-1,92; 1,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,76; 788,07</t>
+          <t>21,78; 897,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,89; 10,68</t>
+          <t>6,09; 10,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,2; 9,47</t>
+          <t>3,96; 9,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,41</t>
+          <t>0,36; 3,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>310,57; 3624,14</t>
+          <t>314,7; 3489,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>99,56; 718,52</t>
+          <t>93,18; 610,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 643,5</t>
+          <t>12,41; 699,61</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,96</t>
+          <t>0,24; 4,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,21; 8,96</t>
+          <t>3,11; 8,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,5; 7,43</t>
+          <t>3,44; 7,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,19; 182,33</t>
+          <t>3,42; 159,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>39,35; 176,99</t>
+          <t>41,93; 180,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>138,27; 775,47</t>
+          <t>149,08; 763,43</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,85; 6,9</t>
+          <t>4,73; 6,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,9; 5,99</t>
+          <t>3,92; 6,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,27</t>
+          <t>1,86; 3,27</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>198,07; 411,77</t>
+          <t>191,88; 415,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>132,9; 280,4</t>
+          <t>129,08; 286,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>166,69; 459,51</t>
+          <t>159,92; 476,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q45B_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Provincia-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 8,07</t>
+          <t>-0,52; 7,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 4,06</t>
+          <t>-1,04; 4,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,98; 321,6</t>
+          <t>-14,76; 359,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-50,51; 601,58</t>
+          <t>-53,34; 569,92</t>
         </is>
       </c>
     </row>
@@ -722,27 +722,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 7,36</t>
+          <t>2,27; 7,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 4,13</t>
+          <t>0,22; 3,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,65</t>
+          <t>0,19; 1,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>90,61; 763,6</t>
+          <t>75,78; 753,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 560,85</t>
+          <t>2,16; 544,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -802,27 +802,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,98; 10,87</t>
+          <t>5,08; 11,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 9,17</t>
+          <t>3,43; 9,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 9,03</t>
+          <t>3,78; 8,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>210,62; —</t>
+          <t>281,2; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>127,87; 2892,71</t>
+          <t>146,75; 2858,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 8,73</t>
+          <t>2,78; 8,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,79</t>
+          <t>3,21; 6,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,94</t>
+          <t>0,57; 3,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>67,34; 1179,71</t>
+          <t>57,56; 881,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>205,77; 2348,7</t>
+          <t>248,88; 2580,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,09; —</t>
+          <t>-7,05; —</t>
         </is>
       </c>
     </row>
@@ -962,27 +962,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 9,96</t>
+          <t>0,72; 9,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,23</t>
+          <t>-0,82; 4,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 1,54</t>
+          <t>-2,3; 1,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,71; 877,25</t>
+          <t>-5,44; 793,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-60,16; —</t>
+          <t>-72,72; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1042,17 +1042,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,17; 15,93</t>
+          <t>8,26; 16,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,03; 7,71</t>
+          <t>0,87; 7,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,34</t>
+          <t>-1,95; 1,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,78; 897,07</t>
+          <t>8,73; 734,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,09; 10,59</t>
+          <t>5,94; 10,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,96; 9,26</t>
+          <t>4,13; 9,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,41</t>
+          <t>0,49; 3,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>314,7; 3489,07</t>
+          <t>253,47; 3215,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,18; 610,98</t>
+          <t>107,34; 628,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,41; 699,61</t>
+          <t>9,94; 705,3</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,24; 4,59</t>
+          <t>0,49; 4,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,11; 8,78</t>
+          <t>3,12; 9,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,44; 7,53</t>
+          <t>3,6; 7,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,42; 159,69</t>
+          <t>9,34; 176,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>41,93; 180,16</t>
+          <t>41,83; 183,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>149,08; 763,43</t>
+          <t>149,52; 816,9</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,73; 6,86</t>
+          <t>4,78; 6,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,92; 6,01</t>
+          <t>3,79; 5,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,27</t>
+          <t>1,9; 3,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>191,88; 415,01</t>
+          <t>199,37; 414,44</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>129,08; 286,18</t>
+          <t>123,53; 278,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>159,92; 476,64</t>
+          <t>148,54; 441,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q45B_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 7,8</t>
+          <t>-0,44; 8,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 4,14</t>
+          <t>-0,9; 4,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 359,21</t>
+          <t>-12,15; 373,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-53,34; 569,92</t>
+          <t>-50,12; 656,2</t>
         </is>
       </c>
     </row>
@@ -722,27 +722,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 7,37</t>
+          <t>2,42; 7,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 3,98</t>
+          <t>0,25; 4,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,67</t>
+          <t>0,19; 1,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,78; 753,41</t>
+          <t>75,91; 828,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 544,74</t>
+          <t>-6,41; 530,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -802,27 +802,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 11,21</t>
+          <t>5,04; 11,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 9,52</t>
+          <t>3,47; 9,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 8,94</t>
+          <t>3,81; 9,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>281,2; —</t>
+          <t>272,33; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>146,75; 2858,71</t>
+          <t>142,79; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 8,72</t>
+          <t>2,61; 9,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,82</t>
+          <t>3,09; 6,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,95</t>
+          <t>0,38; 3,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>57,56; 881,23</t>
+          <t>56,93; 1004,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>248,88; 2580,5</t>
+          <t>207,41; 2497,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,05; —</t>
+          <t>-41,59; —</t>
         </is>
       </c>
     </row>
@@ -962,27 +962,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 9,57</t>
+          <t>1,18; 10,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 4,37</t>
+          <t>-0,82; 4,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,81</t>
+          <t>-2,36; 1,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 793,59</t>
+          <t>-13,68; 1013,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-72,72; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1042,17 +1042,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,26; 16,28</t>
+          <t>8,17; 16,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,79</t>
+          <t>0,95; 8,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 1,32</t>
+          <t>-2,26; 1,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,73; 734,72</t>
+          <t>7,76; 788,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,94; 10,79</t>
+          <t>5,89; 10,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,13; 9,37</t>
+          <t>4,2; 9,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,54</t>
+          <t>0,43; 3,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>253,47; 3215,8</t>
+          <t>310,57; 3624,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>107,34; 628,83</t>
+          <t>99,56; 718,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,94; 705,3</t>
+          <t>-0,03; 643,5</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,92</t>
+          <t>0,53; 4,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,12; 9,08</t>
+          <t>3,21; 8,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,6; 7,54</t>
+          <t>3,5; 7,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,34; 176,83</t>
+          <t>9,19; 182,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>41,83; 183,47</t>
+          <t>39,35; 176,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>149,52; 816,9</t>
+          <t>138,27; 775,47</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,78; 6,86</t>
+          <t>4,85; 6,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,79; 5,91</t>
+          <t>3,9; 5,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,29</t>
+          <t>1,95; 3,27</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>199,37; 414,44</t>
+          <t>198,07; 411,77</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>123,53; 278,81</t>
+          <t>132,9; 280,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>148,54; 441,71</t>
+          <t>166,69; 459,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q45B_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Provincia-trans_bre.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>576,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,34; 10,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>130,46; 2867,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>752,4%</t>
+          <t>1476,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 6,81</t>
+          <t>1,83; 5,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>207,41; 2497,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/Q45B_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Provincia-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 8,02</t>
+          <t>-0,54; 7,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,34; 10,9</t>
+          <t>3,48; 10,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,37</t>
+          <t>-0,79; 4,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 373,01</t>
+          <t>-18,34; 345,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>130,46; 2867,07</t>
+          <t>128,06; 2610,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-50,12; 656,2</t>
+          <t>-42,76; 637,1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,27 +722,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,28</t>
+          <t>2,54; 7,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 4,02</t>
+          <t>0,37; 4,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,63</t>
+          <t>0,19; 1,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,91; 828,47</t>
+          <t>77,69; 832,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 530,58</t>
+          <t>7,02; 607,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,27 +802,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,04; 11,46</t>
+          <t>4,81; 11,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 9,26</t>
+          <t>3,46; 9,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 9,16</t>
+          <t>3,8; 8,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>272,33; —</t>
+          <t>271,6; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>142,79; —</t>
+          <t>145,39; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -882,22 +882,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 9,1</t>
+          <t>2,74; 8,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,52</t>
+          <t>1,97; 5,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,87</t>
+          <t>0,44; 3,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>56,93; 1004,68</t>
+          <t>64,1; 976,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,59; —</t>
+          <t>-32,75; —</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 10,43</t>
+          <t>0,78; 9,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 4,28</t>
+          <t>-0,76; 4,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 1,78</t>
+          <t>-2,34; 1,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 1013,28</t>
+          <t>-5,04; 1161,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,85; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1042,17 +1042,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,17; 16,0</t>
+          <t>8,25; 15,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,95; 8,03</t>
+          <t>1,11; 8,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 1,3</t>
+          <t>-1,84; 1,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,76; 788,07</t>
+          <t>16,38; 829,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1074,7 +1074,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,89; 10,68</t>
+          <t>6,14; 10,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,2; 9,47</t>
+          <t>4,1; 9,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,41</t>
+          <t>0,55; 3,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>310,57; 3624,14</t>
+          <t>341,24; 4839,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>99,56; 718,52</t>
+          <t>103,86; 605,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 643,5</t>
+          <t>21,65; 764,54</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,96</t>
+          <t>0,39; 4,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,21; 8,96</t>
+          <t>3,14; 8,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,5; 7,43</t>
+          <t>3,45; 7,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,19; 182,33</t>
+          <t>7,75; 180,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>39,35; 176,99</t>
+          <t>40,51; 180,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>138,27; 775,47</t>
+          <t>141,34; 783,63</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,85; 6,9</t>
+          <t>4,8; 6,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,9; 5,99</t>
+          <t>3,79; 6,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,27</t>
+          <t>1,89; 3,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>198,07; 411,77</t>
+          <t>196,86; 418,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>132,9; 280,4</t>
+          <t>127,3; 288,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>166,69; 459,51</t>
+          <t>150,8; 451,15</t>
         </is>
       </c>
     </row>
